--- a/biology/Zoologie/Asterina_gibbosa/Asterina_gibbosa.xlsx
+++ b/biology/Zoologie/Asterina_gibbosa/Asterina_gibbosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asterina gibbosa est une espèce d'étoiles de mer de la famille des Asterinidae, commune à faible profondeur sur les côtes européennes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a habituellement cinq bras avec un disque central beaucoup plus grand que les bras. Elle a parfois jusqu'à neuf bras, à la suite d'amputations et repousses chaotiques. On la trouve dans une multitude de couleurs, vert, violet, rouge, orange, jaune et brun, soit marbré ou uni.
 			in situ
@@ -547,10 +561,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve généralement dans la zone intertidale, jusque très près de la surface en Méditerranée. Sa morphologie lui permet de ramper entre les pierres dans les éboulis, et c'est souvent sous les roches qu'on la trouvera pendant la journée, ne s'exposant que la nuit. 
-Cette espèce est commune dans toute la Méditerranée et l'Atlantique Nord-Est[2].
+Cette espèce est commune dans toute la Méditerranée et l'Atlantique Nord-Est.
 </t>
         </is>
       </c>
